--- a/unit_demo.xlsx
+++ b/unit_demo.xlsx
@@ -428,7 +428,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>单位符号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>单位符号LaTex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>单位组名称</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>基准单位</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>换算系数</t>
         </is>
       </c>
     </row>
@@ -438,11 +458,15 @@
           <t>质量</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -450,11 +474,15 @@
           <t>test1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>group1</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
